--- a/inst/templates/templateProject/Scripts/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11167838-BFCE-4821-BAC8-526D6B9AB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277DA45E-F24B-4168-86D2-14D6E07D45A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -99,12 +99,6 @@
     <t>TimeOffset</t>
   </si>
   <si>
-    <t>Organism|Fat|Intracellular|Aciclovir|Concentration in container</t>
-  </si>
-  <si>
-    <t>Aciclovir_fat_cell</t>
-  </si>
-  <si>
     <t>Organism|PeripheralVenousBlood|Aciclovir|Plasma (Peripheral Venous Blood)</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>displayName</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -189,18 +180,12 @@
     <t>unit to display</t>
   </si>
   <si>
-    <t>if not empty color used in plot</t>
-  </si>
-  <si>
     <t>all plots with the same PlotName are plotted together, but in different facets</t>
   </si>
   <si>
     <t>PlotCaptionAddon</t>
   </si>
   <si>
-    <t>DataGroupId</t>
-  </si>
-  <si>
     <t>outputs in brackets are plotted in the same panel facet</t>
   </si>
   <si>
@@ -235,6 +220,24 @@
   </si>
   <si>
     <t>Plot_ResidualsVsObserved</t>
+  </si>
+  <si>
+    <t>DefaultScenario</t>
+  </si>
+  <si>
+    <t>used as suggestion for plots</t>
+  </si>
+  <si>
+    <t>study1234_25mg_fasted</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>if not empty color used in plots</t>
+  </si>
+  <si>
+    <t>DataGroupIds</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,10 +370,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -532,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,86 +684,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1234</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -771,68 +795,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C44529F-9EB1-491B-87DB-746A87886384}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -846,17 +869,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="16"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
     <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
@@ -874,10 +896,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>18</v>
@@ -889,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -928,32 +950,32 @@
         <v>1</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -964,18 +986,18 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1157,12 +1179,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E97C6889-0A30-48C2-9647-A930450F01CD}">
           <x14:formula1>
             <xm:f>DataGroups!$B$3:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{1576F840-501D-412D-B3C6-509681FFD27B}">
+          <x14:formula1>
+            <xm:f>Outputs!$A$3:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1171,12 +1199,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,20 +1413,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1421,12 +1452,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>